--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2573748.104226606</v>
+        <v>2571250.938049741</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673421</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8827225.748238334</v>
+        <v>8827225.748238336</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>195.2590144254303</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
@@ -1385,7 +1385,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>175.7229943792604</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1427,16 +1427,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800346</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I13" t="n">
         <v>49.37728379124555</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>307.2654071077724</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
-        <v>2.349195758670774</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247589</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1765,25 +1765,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T16" t="n">
         <v>172.5738126575766</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.7835684262954</v>
+        <v>288.7835684262956</v>
       </c>
       <c r="C17" t="n">
-        <v>219.0403606609428</v>
+        <v>271.3226185338226</v>
       </c>
       <c r="D17" t="n">
-        <v>260.7327683834978</v>
+        <v>260.732768383498</v>
       </c>
       <c r="E17" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350768</v>
       </c>
       <c r="F17" t="n">
-        <v>312.9257725045263</v>
+        <v>312.9257725045264</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9714524162683</v>
+        <v>264.6891945433906</v>
       </c>
       <c r="H17" t="n">
-        <v>200.6574911501353</v>
+        <v>200.6574911501355</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.23748855099073</v>
+        <v>15.23748855099086</v>
       </c>
       <c r="T17" t="n">
-        <v>109.967696902435</v>
+        <v>109.9676969024352</v>
       </c>
       <c r="U17" t="n">
-        <v>157.0448987217168</v>
+        <v>157.044898721717</v>
       </c>
       <c r="V17" t="n">
-        <v>233.8019852329497</v>
+        <v>233.8019852329499</v>
       </c>
       <c r="W17" t="n">
-        <v>255.2906954802278</v>
+        <v>255.290695480228</v>
       </c>
       <c r="X17" t="n">
-        <v>275.7808274412839</v>
+        <v>275.780827441284</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188686</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.34202812729389</v>
+        <v>85.88170694475232</v>
       </c>
       <c r="C19" t="n">
-        <v>73.29654786144268</v>
+        <v>75.75686904398387</v>
       </c>
       <c r="D19" t="n">
-        <v>54.6651997810272</v>
+        <v>54.66519978102738</v>
       </c>
       <c r="E19" t="n">
-        <v>52.48368940938401</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>51.47077478574609</v>
+        <v>51.47077478574627</v>
       </c>
       <c r="G19" t="n">
-        <v>72.07553502184307</v>
+        <v>72.07553502184325</v>
       </c>
       <c r="H19" t="n">
-        <v>50.80474167713564</v>
+        <v>50.80474167713581</v>
       </c>
       <c r="I19" t="n">
-        <v>2.402147172652974</v>
+        <v>2.402147172653123</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>192.2615649684277</v>
+        <v>192.2615649684279</v>
       </c>
       <c r="V19" t="n">
-        <v>158.1873700866428</v>
+        <v>158.187370086643</v>
       </c>
       <c r="W19" t="n">
-        <v>192.5727250994058</v>
+        <v>192.572725099406</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>124.6343801149098</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.7835684262954</v>
+        <v>288.7835684262956</v>
       </c>
       <c r="C20" t="n">
-        <v>271.3226185338224</v>
+        <v>271.3226185338226</v>
       </c>
       <c r="D20" t="n">
-        <v>260.7327683834978</v>
+        <v>208.4505105106173</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350768</v>
       </c>
       <c r="F20" t="n">
-        <v>312.9257725045263</v>
+        <v>312.9257725045264</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9714524162683</v>
+        <v>316.9714524162684</v>
       </c>
       <c r="H20" t="n">
-        <v>200.6574911501353</v>
+        <v>200.6574911501355</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.2374885509907</v>
+        <v>15.23748855099088</v>
       </c>
       <c r="T20" t="n">
-        <v>109.967696902435</v>
+        <v>109.9676969024352</v>
       </c>
       <c r="U20" t="n">
-        <v>104.7626408488382</v>
+        <v>157.044898721717</v>
       </c>
       <c r="V20" t="n">
-        <v>233.8019852329497</v>
+        <v>233.8019852329499</v>
       </c>
       <c r="W20" t="n">
-        <v>255.2906954802278</v>
+        <v>255.290695480228</v>
       </c>
       <c r="X20" t="n">
-        <v>275.7808274412839</v>
+        <v>275.780827441284</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188686</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>85.88170694475232</v>
       </c>
       <c r="C22" t="n">
-        <v>73.29654786144268</v>
+        <v>73.29654786144286</v>
       </c>
       <c r="D22" t="n">
-        <v>54.6651997810272</v>
+        <v>54.66519978102738</v>
       </c>
       <c r="E22" t="n">
-        <v>52.48368940938401</v>
+        <v>52.4836894093842</v>
       </c>
       <c r="F22" t="n">
-        <v>51.47077478574609</v>
+        <v>51.47077478574627</v>
       </c>
       <c r="G22" t="n">
-        <v>72.07553502184307</v>
+        <v>72.07553502184325</v>
       </c>
       <c r="H22" t="n">
-        <v>50.80474167713563</v>
+        <v>50.80474167713581</v>
       </c>
       <c r="I22" t="n">
-        <v>2.40214717265296</v>
+        <v>2.402147172653137</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>95.81875209425674</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>125.598676038984</v>
+        <v>125.5986760389842</v>
       </c>
       <c r="U22" t="n">
-        <v>194.7218861509697</v>
+        <v>192.2615649684279</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>131.759382151852</v>
+        <v>131.7593821518522</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>132.1128218645877</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.7835684262954</v>
+        <v>288.7835684262956</v>
       </c>
       <c r="C23" t="n">
-        <v>271.3226185338224</v>
+        <v>271.3226185338226</v>
       </c>
       <c r="D23" t="n">
-        <v>260.7327683834978</v>
+        <v>260.732768383498</v>
       </c>
       <c r="E23" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350768</v>
       </c>
       <c r="F23" t="n">
-        <v>312.9257725045263</v>
+        <v>312.9257725045264</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9714524162683</v>
+        <v>316.9714524162684</v>
       </c>
       <c r="H23" t="n">
-        <v>200.6574911501353</v>
+        <v>200.6574911501355</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.23748855099068</v>
+        <v>15.23748855099086</v>
       </c>
       <c r="T23" t="n">
-        <v>109.967696902435</v>
+        <v>68.24258074554616</v>
       </c>
       <c r="U23" t="n">
-        <v>157.0448987217168</v>
+        <v>157.044898721717</v>
       </c>
       <c r="V23" t="n">
-        <v>192.0768690760613</v>
+        <v>233.8019852329499</v>
       </c>
       <c r="W23" t="n">
-        <v>255.2906954802278</v>
+        <v>255.290695480228</v>
       </c>
       <c r="X23" t="n">
-        <v>275.7808274412839</v>
+        <v>275.780827441284</v>
       </c>
       <c r="Y23" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188686</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.88170694475214</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>73.29654786144268</v>
+        <v>73.29654786144286</v>
       </c>
       <c r="D25" t="n">
-        <v>54.6651997810272</v>
+        <v>54.66519978102738</v>
       </c>
       <c r="E25" t="n">
-        <v>52.48368940938401</v>
+        <v>52.4836894093842</v>
       </c>
       <c r="F25" t="n">
-        <v>51.47077478574609</v>
+        <v>51.47077478574627</v>
       </c>
       <c r="G25" t="n">
-        <v>72.07553502184307</v>
+        <v>72.07553502184325</v>
       </c>
       <c r="H25" t="n">
-        <v>50.80474167713562</v>
+        <v>50.80474167713581</v>
       </c>
       <c r="I25" t="n">
-        <v>2.402147172652938</v>
+        <v>2.402147172653123</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.81875209425672</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>125.598676038984</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>192.2615649684279</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>195.033046281947</v>
       </c>
       <c r="X25" t="n">
-        <v>139.2378239015329</v>
+        <v>131.7593821518522</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.6343801149096</v>
+        <v>124.6343801149098</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>297.5969707338224</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>189.9955896644222</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247741</v>
+        <v>18.81721868247738</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2798,16 +2798,16 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.1574214400741</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>87.68596047348649</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
         <v>322.7559640598765</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247741</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.8032029865176</v>
+        <v>285.8032029865178</v>
       </c>
       <c r="C32" t="n">
-        <v>268.3422530940446</v>
+        <v>268.3422530940447</v>
       </c>
       <c r="D32" t="n">
-        <v>257.75240294372</v>
+        <v>257.7524029437201</v>
       </c>
       <c r="E32" t="n">
-        <v>284.9997313952989</v>
+        <v>284.999731395299</v>
       </c>
       <c r="F32" t="n">
-        <v>309.9454070647485</v>
+        <v>309.9454070647486</v>
       </c>
       <c r="G32" t="n">
-        <v>313.9910869764905</v>
+        <v>313.9910869764906</v>
       </c>
       <c r="H32" t="n">
-        <v>197.6771257103575</v>
+        <v>197.6771257103576</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.25712311121292</v>
+        <v>12.25712311121302</v>
       </c>
       <c r="T32" t="n">
-        <v>106.9873314626572</v>
+        <v>106.9873314626573</v>
       </c>
       <c r="U32" t="n">
-        <v>154.0645332819391</v>
+        <v>154.0645332819392</v>
       </c>
       <c r="V32" t="n">
-        <v>230.821619793172</v>
+        <v>230.8216197931721</v>
       </c>
       <c r="W32" t="n">
-        <v>252.3103300404501</v>
+        <v>252.3103300404502</v>
       </c>
       <c r="X32" t="n">
-        <v>272.8004620015061</v>
+        <v>272.8004620015062</v>
       </c>
       <c r="Y32" t="n">
-        <v>289.3072999790907</v>
+        <v>289.3072999790908</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247738</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.90134150497438</v>
+        <v>82.90134150497448</v>
       </c>
       <c r="C34" t="n">
-        <v>70.31618242166492</v>
+        <v>70.31618242166502</v>
       </c>
       <c r="D34" t="n">
-        <v>86.35095709422323</v>
+        <v>51.68483434124954</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>49.50332396960636</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>48.49040934596843</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>111.7597783419533</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>47.82437623735797</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>92.83838665447898</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>122.6183105992063</v>
+        <v>122.6183105992064</v>
       </c>
       <c r="U34" t="n">
-        <v>189.2811995286499</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>155.2070046468651</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>189.5923596596281</v>
+        <v>189.5923596596282</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7790167120742</v>
+        <v>128.7790167120743</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.6540146751319</v>
+        <v>121.654014675132</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3427,22 +3427,22 @@
         <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010746</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
-        <v>91.27556587748627</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>92.084305103337</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>188.527117977508</v>
@@ -3490,7 +3490,7 @@
         <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>171.859438946441</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592153</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
         <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420291</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
         <v>251.5562484893081</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G40" t="n">
-        <v>110.5480262953163</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>99.36210032693369</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.084305103337</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
@@ -3718,7 +3718,7 @@
         <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
         <v>188.8382781084861</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925782</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441545</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136067</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253487</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592157</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007104</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503643</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383236</v>
+        <v>82.1472599538325</v>
       </c>
       <c r="C43" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052304</v>
       </c>
       <c r="D43" t="n">
-        <v>93.13769105450123</v>
+        <v>50.93075279010756</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846438</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482645</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092343</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621599</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>92.0843051033371</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>172.8237348705142</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.89993312399</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925782</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136067</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253487</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592157</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007104</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115154</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503643</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247761</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383236</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>111.7690391349169</v>
+        <v>69.56210087052304</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010756</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846438</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482645</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092343</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621599</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480644</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775081</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>178.9844409833819</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1945.8367489023</v>
+        <v>1644.057218491951</v>
       </c>
       <c r="C11" t="n">
-        <v>1624.323864909961</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.507799251284</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E11" t="n">
-        <v>975.1691796011135</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F11" t="n">
-        <v>611.6329077595792</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G11" t="n">
-        <v>244.0100905526484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5051,40 +5051,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084337</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416632</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638542</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243045</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2614.542573243045</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2288.526447930038</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>1945.8367489023</v>
+        <v>1983.207425608</v>
       </c>
     </row>
     <row r="12">
@@ -5094,70 +5094,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052945</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254612</v>
+        <v>637.9796998254609</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611989</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.849232726879</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F13" t="n">
-        <v>335.408918177042</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
         <v>215.1557144998336</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337111</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5215,34 +5215,34 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
         <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874605</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1457.522709123157</v>
+        <v>1301.367519464214</v>
       </c>
       <c r="C14" t="n">
-        <v>1136.009825130819</v>
+        <v>1301.367519464214</v>
       </c>
       <c r="D14" t="n">
-        <v>1136.009825130819</v>
+        <v>990.5514538055363</v>
       </c>
       <c r="E14" t="n">
-        <v>797.6712054806478</v>
+        <v>680.1823557168773</v>
       </c>
       <c r="F14" t="n">
-        <v>434.1349336391136</v>
+        <v>316.646083875343</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218338</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084337</v>
+        <v>3262.764786084341</v>
       </c>
       <c r="T14" t="n">
-        <v>3260.391861075579</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U14" t="n">
-        <v>3054.311017297488</v>
+        <v>2898.155827638546</v>
       </c>
       <c r="V14" t="n">
-        <v>2770.697762901991</v>
+        <v>2614.542573243049</v>
       </c>
       <c r="W14" t="n">
-        <v>2465.37874057995</v>
+        <v>2309.223550921008</v>
       </c>
       <c r="X14" t="n">
-        <v>2139.362615266944</v>
+        <v>1983.207425608001</v>
       </c>
       <c r="Y14" t="n">
-        <v>1796.672916239206</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C15" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387288</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927764</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315254</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337111</v>
+        <v>771.6978860337116</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5455,31 +5455,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1680.964583048797</v>
+        <v>1680.964583048799</v>
       </c>
       <c r="C17" t="n">
-        <v>1459.711693492289</v>
+        <v>1406.901332004534</v>
       </c>
       <c r="D17" t="n">
-        <v>1196.345260781685</v>
+        <v>1143.53489929393</v>
       </c>
       <c r="E17" t="n">
-        <v>905.4562740795873</v>
+        <v>852.6459125918324</v>
       </c>
       <c r="F17" t="n">
-        <v>589.3696351861263</v>
+        <v>536.5592736983713</v>
       </c>
       <c r="G17" t="n">
-        <v>269.1964509272696</v>
+        <v>269.1964509272698</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939505</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.21441903241</v>
+        <v>3310.214419032414</v>
       </c>
       <c r="T17" t="n">
-        <v>3199.135937312779</v>
+        <v>3199.135937312783</v>
       </c>
       <c r="U17" t="n">
-        <v>3040.504726482762</v>
+        <v>3040.504726482765</v>
       </c>
       <c r="V17" t="n">
-        <v>2804.341105035338</v>
+        <v>2804.341105035341</v>
       </c>
       <c r="W17" t="n">
-        <v>2546.471715661371</v>
+        <v>2546.471715661373</v>
       </c>
       <c r="X17" t="n">
-        <v>2267.905223296437</v>
+        <v>2267.90522329644</v>
       </c>
       <c r="Y17" t="n">
-        <v>1972.665157216772</v>
+        <v>1972.665157216775</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5580,46 +5580,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031475</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>427.318819168781</v>
+        <v>524.7032579765864</v>
       </c>
       <c r="C19" t="n">
-        <v>353.2819021370207</v>
+        <v>448.1811680331684</v>
       </c>
       <c r="D19" t="n">
-        <v>298.0645286208317</v>
+        <v>392.9637945169791</v>
       </c>
       <c r="E19" t="n">
-        <v>245.0507009345852</v>
+        <v>245.050700934586</v>
       </c>
       <c r="F19" t="n">
-        <v>193.0600193328215</v>
+        <v>193.060019332822</v>
       </c>
       <c r="G19" t="n">
-        <v>120.256448603687</v>
+        <v>120.2564486036874</v>
       </c>
       <c r="H19" t="n">
-        <v>68.93852771769143</v>
+        <v>68.93852771769166</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915318</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484844</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1319.638447506634</v>
+        <v>1319.638447506635</v>
       </c>
       <c r="V19" t="n">
-        <v>1159.853225196894</v>
+        <v>1159.853225196895</v>
       </c>
       <c r="W19" t="n">
-        <v>965.3353210560799</v>
+        <v>965.3353210560806</v>
       </c>
       <c r="X19" t="n">
-        <v>737.3457701580626</v>
+        <v>737.3457701580633</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5531910145324</v>
+        <v>611.4524569106796</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1733.774944536553</v>
+        <v>1680.964583048797</v>
       </c>
       <c r="C20" t="n">
-        <v>1459.711693492289</v>
+        <v>1406.901332004531</v>
       </c>
       <c r="D20" t="n">
-        <v>1196.345260781685</v>
+        <v>1196.345260781686</v>
       </c>
       <c r="E20" t="n">
-        <v>905.4562740795873</v>
+        <v>905.4562740795881</v>
       </c>
       <c r="F20" t="n">
-        <v>589.3696351861264</v>
+        <v>589.369635186127</v>
       </c>
       <c r="G20" t="n">
-        <v>269.1964509272696</v>
+        <v>269.1964509272698</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939506</v>
@@ -5771,31 +5771,31 @@
         <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
         <v>3310.214419032411</v>
       </c>
       <c r="T20" t="n">
-        <v>3199.135937312779</v>
+        <v>3199.13593731278</v>
       </c>
       <c r="U20" t="n">
-        <v>3093.315087970519</v>
+        <v>3040.504726482763</v>
       </c>
       <c r="V20" t="n">
-        <v>2857.151466523094</v>
+        <v>2804.341105035338</v>
       </c>
       <c r="W20" t="n">
-        <v>2599.282077149127</v>
+        <v>2546.471715661371</v>
       </c>
       <c r="X20" t="n">
-        <v>2320.715584784194</v>
+        <v>2267.905223296437</v>
       </c>
       <c r="Y20" t="n">
-        <v>2025.475518704529</v>
+        <v>1972.665157216772</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811063</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999793</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387282</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332726</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601577</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158126</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
         <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125854</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619334</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471661</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266128</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501174</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>427.3188191687809</v>
+        <v>427.3188191687823</v>
       </c>
       <c r="C22" t="n">
-        <v>353.2819021370207</v>
+        <v>353.2819021370219</v>
       </c>
       <c r="D22" t="n">
-        <v>298.0645286208316</v>
+        <v>298.0645286208326</v>
       </c>
       <c r="E22" t="n">
-        <v>245.0507009345851</v>
+        <v>245.0507009345859</v>
       </c>
       <c r="F22" t="n">
-        <v>193.0600193328214</v>
+        <v>193.060019332822</v>
       </c>
       <c r="G22" t="n">
-        <v>120.256448603687</v>
+        <v>120.2564486036874</v>
       </c>
       <c r="H22" t="n">
-        <v>68.93852771769141</v>
+        <v>68.93852771769161</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5914,46 +5914,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S22" t="n">
-        <v>1830.507929811465</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1703.640580277137</v>
+        <v>1518.910857138519</v>
       </c>
       <c r="U22" t="n">
-        <v>1506.951806387269</v>
+        <v>1324.707256160309</v>
       </c>
       <c r="V22" t="n">
-        <v>1252.267318181382</v>
+        <v>1070.022767954422</v>
       </c>
       <c r="W22" t="n">
-        <v>962.8501481444215</v>
+        <v>780.6055979174614</v>
       </c>
       <c r="X22" t="n">
-        <v>829.7598631425508</v>
+        <v>647.5153129155905</v>
       </c>
       <c r="Y22" t="n">
-        <v>608.9672839990207</v>
+        <v>514.0680181028756</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>1733.992572689842</v>
       </c>
       <c r="C23" t="n">
-        <v>1459.929321645576</v>
+        <v>1459.929321645577</v>
       </c>
       <c r="D23" t="n">
         <v>1196.562888934973</v>
       </c>
       <c r="E23" t="n">
-        <v>905.673902232875</v>
+        <v>905.6739022328755</v>
       </c>
       <c r="F23" t="n">
-        <v>589.5872633394141</v>
+        <v>589.5872633394144</v>
       </c>
       <c r="G23" t="n">
-        <v>269.4140790805573</v>
+        <v>269.4140790805576</v>
       </c>
       <c r="H23" t="n">
-        <v>66.72974458547115</v>
+        <v>66.7297445854712</v>
       </c>
       <c r="I23" t="n">
-        <v>66.72974458547115</v>
+        <v>66.7297445854712</v>
       </c>
       <c r="J23" t="n">
         <v>255.6088755444966</v>
       </c>
       <c r="K23" t="n">
-        <v>589.4282492343431</v>
+        <v>589.4282492343432</v>
       </c>
       <c r="L23" t="n">
         <v>1040.462462482752</v>
@@ -6011,28 +6011,28 @@
         <v>3266.806383205656</v>
       </c>
       <c r="R23" t="n">
-        <v>3336.487229273558</v>
+        <v>3336.48722927356</v>
       </c>
       <c r="S23" t="n">
-        <v>3321.095826696799</v>
+        <v>3321.095826696801</v>
       </c>
       <c r="T23" t="n">
-        <v>3210.017344977168</v>
+        <v>3252.163926953825</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.386134147151</v>
+        <v>3093.532716123808</v>
       </c>
       <c r="V23" t="n">
-        <v>2857.369094676383</v>
+        <v>2857.369094676384</v>
       </c>
       <c r="W23" t="n">
-        <v>2599.499705302415</v>
+        <v>2599.499705302416</v>
       </c>
       <c r="X23" t="n">
-        <v>2320.933212937482</v>
+        <v>2320.933212937483</v>
       </c>
       <c r="Y23" t="n">
-        <v>2025.693146857817</v>
+        <v>2025.693146857818</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>176.2389305460657</v>
       </c>
       <c r="H24" t="n">
-        <v>85.73703618393318</v>
+        <v>85.73703618393324</v>
       </c>
       <c r="I24" t="n">
-        <v>66.72974458547115</v>
+        <v>66.7297445854712</v>
       </c>
       <c r="J24" t="n">
         <v>160.4070140760885</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>427.5364473220687</v>
+        <v>427.5364473220702</v>
       </c>
       <c r="C25" t="n">
-        <v>353.4995302903084</v>
+        <v>353.4995302903097</v>
       </c>
       <c r="D25" t="n">
-        <v>298.2821567741194</v>
+        <v>298.2821567741204</v>
       </c>
       <c r="E25" t="n">
-        <v>245.2683290878729</v>
+        <v>245.2683290878737</v>
       </c>
       <c r="F25" t="n">
-        <v>193.2776474861092</v>
+        <v>193.2776474861098</v>
       </c>
       <c r="G25" t="n">
-        <v>120.4740767569748</v>
+        <v>120.4740767569752</v>
       </c>
       <c r="H25" t="n">
-        <v>69.15615587097918</v>
+        <v>69.1561558709794</v>
       </c>
       <c r="I25" t="n">
-        <v>66.72974458547115</v>
+        <v>66.7297445854712</v>
       </c>
       <c r="J25" t="n">
-        <v>111.8523770324067</v>
+        <v>111.8523770324068</v>
       </c>
       <c r="K25" t="n">
-        <v>315.8395599812831</v>
+        <v>315.8395599812832</v>
       </c>
       <c r="L25" t="n">
-        <v>632.3993584297791</v>
+        <v>632.3993584297793</v>
       </c>
       <c r="M25" t="n">
-        <v>976.5564040293282</v>
+        <v>976.5564040293284</v>
       </c>
       <c r="N25" t="n">
         <v>1317.964780735193</v>
@@ -6166,31 +6166,31 @@
         <v>1849.901880089266</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.51217624178</v>
+        <v>1927.512176241781</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.681718999308</v>
+        <v>1927.512176241781</v>
       </c>
       <c r="S25" t="n">
-        <v>1740.895100722282</v>
+        <v>1735.826292068607</v>
       </c>
       <c r="T25" t="n">
-        <v>1614.027751187954</v>
+        <v>1514.059676638133</v>
       </c>
       <c r="U25" t="n">
-        <v>1324.924884313598</v>
+        <v>1319.856075659923</v>
       </c>
       <c r="V25" t="n">
-        <v>1070.240396107711</v>
+        <v>1065.171587454036</v>
       </c>
       <c r="W25" t="n">
-        <v>780.8232260707503</v>
+        <v>868.1685104015644</v>
       </c>
       <c r="X25" t="n">
-        <v>640.1789595035453</v>
+        <v>735.0782253996935</v>
       </c>
       <c r="Y25" t="n">
-        <v>514.2856462561618</v>
+        <v>609.1849121523098</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1768.556402935122</v>
+        <v>1980.954751469346</v>
       </c>
       <c r="C26" t="n">
-        <v>1447.043518942784</v>
+        <v>1659.441867477007</v>
       </c>
       <c r="D26" t="n">
-        <v>1136.227453284107</v>
+        <v>1348.62580181833</v>
       </c>
       <c r="E26" t="n">
-        <v>797.8888336339356</v>
+        <v>1048.022801077095</v>
       </c>
       <c r="F26" t="n">
-        <v>434.3525617924014</v>
+        <v>684.4865292355611</v>
       </c>
       <c r="G26" t="n">
-        <v>66.72974458547115</v>
+        <v>316.8637120286307</v>
       </c>
       <c r="H26" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547118</v>
       </c>
       <c r="I26" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547118</v>
       </c>
       <c r="J26" t="n">
         <v>255.6088755444966</v>
       </c>
       <c r="K26" t="n">
-        <v>589.4282492343431</v>
+        <v>589.4282492343432</v>
       </c>
       <c r="L26" t="n">
         <v>1040.462462482752</v>
       </c>
       <c r="M26" t="n">
-        <v>1584.658146665775</v>
+        <v>1573.994367154677</v>
       </c>
       <c r="N26" t="n">
-        <v>2131.436963724558</v>
+        <v>2131.436963724559</v>
       </c>
       <c r="O26" t="n">
-        <v>2634.409434603895</v>
+        <v>2634.409434603896</v>
       </c>
       <c r="P26" t="n">
-        <v>3029.183800961073</v>
+        <v>3029.183800961074</v>
       </c>
       <c r="Q26" t="n">
-        <v>3277.470162716755</v>
+        <v>3277.470162716756</v>
       </c>
       <c r="R26" t="n">
-        <v>3336.487229273558</v>
+        <v>3336.487229273559</v>
       </c>
       <c r="S26" t="n">
-        <v>3273.646193748726</v>
+        <v>3273.646193748727</v>
       </c>
       <c r="T26" t="n">
-        <v>3273.646193748726</v>
+        <v>3115.118079081023</v>
       </c>
       <c r="U26" t="n">
-        <v>3081.731456713957</v>
+        <v>2909.037235302932</v>
       </c>
       <c r="V26" t="n">
-        <v>3081.731456713957</v>
+        <v>2625.423980907435</v>
       </c>
       <c r="W26" t="n">
-        <v>2776.412434391916</v>
+        <v>2320.104958585394</v>
       </c>
       <c r="X26" t="n">
-        <v>2450.396309078909</v>
+        <v>2320.104958585394</v>
       </c>
       <c r="Y26" t="n">
-        <v>2107.706610051171</v>
+        <v>2320.104958585394</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>85.73703618393318</v>
       </c>
       <c r="I27" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547118</v>
       </c>
       <c r="J27" t="n">
         <v>160.4070140760885</v>
@@ -6358,61 +6358,61 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.6838779585825</v>
+        <v>759.6838779585821</v>
       </c>
       <c r="C28" t="n">
-        <v>638.1973279787488</v>
+        <v>638.1973279787485</v>
       </c>
       <c r="D28" t="n">
-        <v>535.5303215144864</v>
+        <v>535.530321514486</v>
       </c>
       <c r="E28" t="n">
-        <v>435.0668608801666</v>
+        <v>435.0668608801661</v>
       </c>
       <c r="F28" t="n">
-        <v>335.6265463303296</v>
+        <v>335.626546330329</v>
       </c>
       <c r="G28" t="n">
-        <v>215.3733426531214</v>
+        <v>215.3733426531212</v>
       </c>
       <c r="H28" t="n">
-        <v>116.6057888190524</v>
+        <v>116.6057888190525</v>
       </c>
       <c r="I28" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547118</v>
       </c>
       <c r="J28" t="n">
         <v>158.3577622848132</v>
       </c>
       <c r="K28" t="n">
-        <v>408.8503304860963</v>
+        <v>408.8503304860962</v>
       </c>
       <c r="L28" t="n">
-        <v>771.9155141869991</v>
+        <v>771.915514186999</v>
       </c>
       <c r="M28" t="n">
-        <v>1162.577945038955</v>
+        <v>1162.577945038954</v>
       </c>
       <c r="N28" t="n">
-        <v>1550.491706997226</v>
+        <v>1550.491706997225</v>
       </c>
       <c r="O28" t="n">
-        <v>1896.326691170046</v>
+        <v>1896.326691170045</v>
       </c>
       <c r="P28" t="n">
-        <v>2175.439576856112</v>
+        <v>2175.439576856111</v>
       </c>
       <c r="Q28" t="n">
         <v>2299.555258261033</v>
       </c>
       <c r="R28" t="n">
-        <v>2257.174433966635</v>
+        <v>2257.174433966634</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.938182741535</v>
+        <v>2112.938182741534</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.621200259134</v>
+        <v>1938.621200259133</v>
       </c>
       <c r="U28" t="n">
         <v>1696.967966332851</v>
@@ -6424,10 +6424,10 @@
         <v>1247.76557398615</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.225656036206</v>
+        <v>1067.225656036205</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.8827098407489</v>
+        <v>893.8827098407486</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2018.690370378282</v>
+        <v>1312.248927128601</v>
       </c>
       <c r="C29" t="n">
-        <v>1697.177486385944</v>
+        <v>990.7360431362627</v>
       </c>
       <c r="D29" t="n">
-        <v>1386.361420727267</v>
+        <v>679.9199774775853</v>
       </c>
       <c r="E29" t="n">
-        <v>1048.022801077096</v>
+        <v>679.9199774775853</v>
       </c>
       <c r="F29" t="n">
-        <v>684.4865292355612</v>
+        <v>316.3837056360511</v>
       </c>
       <c r="G29" t="n">
-        <v>316.8637120286307</v>
+        <v>316.3837056360511</v>
       </c>
       <c r="H29" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547118</v>
       </c>
       <c r="I29" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547118</v>
       </c>
       <c r="J29" t="n">
         <v>255.6088755444966</v>
       </c>
       <c r="K29" t="n">
-        <v>589.4282492343431</v>
+        <v>589.4282492343432</v>
       </c>
       <c r="L29" t="n">
         <v>1040.462462482752</v>
       </c>
       <c r="M29" t="n">
-        <v>1584.658146665775</v>
+        <v>1573.994367154677</v>
       </c>
       <c r="N29" t="n">
-        <v>2131.436963724558</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O29" t="n">
-        <v>2634.409434603895</v>
+        <v>2623.745655092796</v>
       </c>
       <c r="P29" t="n">
-        <v>3029.183800961073</v>
+        <v>3029.183800961074</v>
       </c>
       <c r="Q29" t="n">
-        <v>3277.470162716755</v>
+        <v>3277.470162716756</v>
       </c>
       <c r="R29" t="n">
-        <v>3336.487229273558</v>
+        <v>3336.487229273559</v>
       </c>
       <c r="S29" t="n">
-        <v>3273.646193748726</v>
+        <v>3273.646193748727</v>
       </c>
       <c r="T29" t="n">
-        <v>3115.118079081021</v>
+        <v>3115.118079081023</v>
       </c>
       <c r="U29" t="n">
-        <v>3115.118079081021</v>
+        <v>2909.037235302932</v>
       </c>
       <c r="V29" t="n">
-        <v>3115.118079081021</v>
+        <v>2625.423980907435</v>
       </c>
       <c r="W29" t="n">
-        <v>3026.546401835075</v>
+        <v>2320.104958585394</v>
       </c>
       <c r="X29" t="n">
-        <v>2700.530276522069</v>
+        <v>1994.088833272388</v>
       </c>
       <c r="Y29" t="n">
-        <v>2357.84057749433</v>
+        <v>1651.39913424465</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.7614826343963</v>
+        <v>941.7614826343961</v>
       </c>
       <c r="C30" t="n">
-        <v>767.3084533532693</v>
+        <v>767.3084533532691</v>
       </c>
       <c r="D30" t="n">
-        <v>618.3740436920181</v>
+        <v>618.3740436920179</v>
       </c>
       <c r="E30" t="n">
-        <v>459.1365886865626</v>
+        <v>459.1365886865624</v>
       </c>
       <c r="F30" t="n">
-        <v>312.6020307134476</v>
+        <v>312.6020307134474</v>
       </c>
       <c r="G30" t="n">
-        <v>176.2389305460657</v>
+        <v>176.2389305460661</v>
       </c>
       <c r="H30" t="n">
-        <v>85.73703618393318</v>
+        <v>85.7370361839336</v>
       </c>
       <c r="I30" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547118</v>
       </c>
       <c r="J30" t="n">
-        <v>160.4070140760885</v>
+        <v>160.4070140760884</v>
       </c>
       <c r="K30" t="n">
         <v>398.6712130564356</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.6838779585821</v>
+        <v>759.683877958582</v>
       </c>
       <c r="C31" t="n">
-        <v>638.1973279787485</v>
+        <v>638.1973279787484</v>
       </c>
       <c r="D31" t="n">
-        <v>535.5303215144861</v>
+        <v>535.530321514486</v>
       </c>
       <c r="E31" t="n">
-        <v>435.0668608801662</v>
+        <v>435.0668608801661</v>
       </c>
       <c r="F31" t="n">
-        <v>335.6265463303292</v>
+        <v>335.6265463303291</v>
       </c>
       <c r="G31" t="n">
-        <v>215.3733426531214</v>
+        <v>215.3733426531213</v>
       </c>
       <c r="H31" t="n">
         <v>116.6057888190525</v>
       </c>
       <c r="I31" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547118</v>
       </c>
       <c r="J31" t="n">
-        <v>158.3577622848134</v>
+        <v>158.3577622848131</v>
       </c>
       <c r="K31" t="n">
-        <v>408.8503304860964</v>
+        <v>408.8503304860963</v>
       </c>
       <c r="L31" t="n">
         <v>771.9155141869992</v>
       </c>
       <c r="M31" t="n">
-        <v>1162.577945038954</v>
+        <v>1162.577945038955</v>
       </c>
       <c r="N31" t="n">
         <v>1550.491706997226</v>
@@ -6643,13 +6643,13 @@
         <v>2299.555258261033</v>
       </c>
       <c r="R31" t="n">
-        <v>2257.174433966634</v>
+        <v>2257.174433966635</v>
       </c>
       <c r="S31" t="n">
         <v>2112.938182741534</v>
       </c>
       <c r="T31" t="n">
-        <v>1938.621200259133</v>
+        <v>1938.621200259134</v>
       </c>
       <c r="U31" t="n">
         <v>1696.96796633285</v>
@@ -6658,7 +6658,7 @@
         <v>1489.733111075037</v>
       </c>
       <c r="W31" t="n">
-        <v>1247.765573986149</v>
+        <v>1247.76557398615</v>
       </c>
       <c r="X31" t="n">
         <v>1067.225656036205</v>
@@ -6677,73 +6677,73 @@
         <v>1715.929751842704</v>
       </c>
       <c r="C32" t="n">
-        <v>1444.876970939628</v>
+        <v>1444.876970939629</v>
       </c>
       <c r="D32" t="n">
         <v>1184.521008370214</v>
       </c>
       <c r="E32" t="n">
-        <v>896.642491809306</v>
+        <v>896.6424918093062</v>
       </c>
       <c r="F32" t="n">
-        <v>583.5663230570347</v>
+        <v>583.5663230570349</v>
       </c>
       <c r="G32" t="n">
-        <v>266.4036089393676</v>
+        <v>266.4036089393678</v>
       </c>
       <c r="H32" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547118</v>
       </c>
       <c r="I32" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547118</v>
       </c>
       <c r="J32" t="n">
-        <v>266.2726550555954</v>
+        <v>255.6088755444966</v>
       </c>
       <c r="K32" t="n">
-        <v>600.0920287454419</v>
+        <v>589.4282492343432</v>
       </c>
       <c r="L32" t="n">
-        <v>1051.126241993851</v>
+        <v>1040.462462482752</v>
       </c>
       <c r="M32" t="n">
-        <v>1584.658146665775</v>
+        <v>1573.994367154677</v>
       </c>
       <c r="N32" t="n">
-        <v>2131.436963724558</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O32" t="n">
-        <v>2634.409434603895</v>
+        <v>2623.745655092796</v>
       </c>
       <c r="P32" t="n">
-        <v>3029.183800961073</v>
+        <v>3018.520021449974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3277.470162716755</v>
+        <v>3277.470162716756</v>
       </c>
       <c r="R32" t="n">
-        <v>3336.487229273558</v>
+        <v>3336.487229273559</v>
       </c>
       <c r="S32" t="n">
-        <v>3324.106296837989</v>
+        <v>3324.10629683799</v>
       </c>
       <c r="T32" t="n">
-        <v>3216.038285259547</v>
+        <v>3216.038285259549</v>
       </c>
       <c r="U32" t="n">
         <v>3060.417544570721</v>
       </c>
       <c r="V32" t="n">
-        <v>2827.264393264486</v>
+        <v>2827.264393264487</v>
       </c>
       <c r="W32" t="n">
-        <v>2572.405474031708</v>
+        <v>2572.405474031709</v>
       </c>
       <c r="X32" t="n">
         <v>2296.849451807965</v>
       </c>
       <c r="Y32" t="n">
-        <v>2004.619855869489</v>
+        <v>2004.61985586949</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C33" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D33" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E33" t="n">
         <v>459.1365886865626</v>
@@ -6774,7 +6774,7 @@
         <v>85.73703618393318</v>
       </c>
       <c r="I33" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547118</v>
       </c>
       <c r="J33" t="n">
         <v>160.4070140760885</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>833.7024449478324</v>
+        <v>450.1427795933506</v>
       </c>
       <c r="C34" t="n">
-        <v>762.6759980572618</v>
+        <v>379.1163327027799</v>
       </c>
       <c r="D34" t="n">
-        <v>675.452809073198</v>
+        <v>326.9094293277803</v>
       </c>
       <c r="E34" t="n">
-        <v>527.5397154908048</v>
+        <v>276.9060717827234</v>
       </c>
       <c r="F34" t="n">
-        <v>380.6497679928945</v>
+        <v>227.9258603221492</v>
       </c>
       <c r="G34" t="n">
-        <v>212.9469313676134</v>
+        <v>115.0371953302772</v>
       </c>
       <c r="H34" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547118</v>
       </c>
       <c r="I34" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547118</v>
       </c>
       <c r="J34" t="n">
         <v>111.8523770324067</v>
@@ -6862,7 +6862,7 @@
         <v>315.8395599812831</v>
       </c>
       <c r="L34" t="n">
-        <v>632.3993584297791</v>
+        <v>632.3993584297792</v>
       </c>
       <c r="M34" t="n">
         <v>976.5564040293282</v>
@@ -6880,28 +6880,28 @@
         <v>1927.51217624178</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.51217624178</v>
+        <v>1837.681718999308</v>
       </c>
       <c r="S34" t="n">
-        <v>1833.736028105943</v>
+        <v>1645.995834826135</v>
       </c>
       <c r="T34" t="n">
-        <v>1709.879148712806</v>
+        <v>1522.138955432997</v>
       </c>
       <c r="U34" t="n">
-        <v>1518.686017875785</v>
+        <v>1233.036088558641</v>
       </c>
       <c r="V34" t="n">
-        <v>1361.911265707235</v>
+        <v>978.3516003527537</v>
       </c>
       <c r="W34" t="n">
-        <v>1170.403831707611</v>
+        <v>786.8441663531293</v>
       </c>
       <c r="X34" t="n">
-        <v>1040.32401684693</v>
+        <v>656.7643514924481</v>
       </c>
       <c r="Y34" t="n">
-        <v>917.4411737407358</v>
+        <v>533.8815083862542</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,10 +6920,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
@@ -6947,7 +6947,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6965,19 +6965,19 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218343</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>740.9069705127572</v>
+        <v>500.9308303909362</v>
       </c>
       <c r="C37" t="n">
-        <v>670.6422221586936</v>
+        <v>430.6660820368726</v>
       </c>
       <c r="D37" t="n">
-        <v>619.1970173202012</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E37" t="n">
-        <v>569.9553583116515</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218343</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1332.251593515704</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1077.567105309817</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663014</v>
+        <v>886.8213698466994</v>
       </c>
       <c r="X37" t="n">
-        <v>946.0051453388403</v>
+        <v>757.5032535225255</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.8840007691535</v>
+        <v>583.9078606473325</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046498</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307338</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218343</v>
@@ -7202,22 +7202,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,64 +7227,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>740.9069705127572</v>
+        <v>651.0765132702857</v>
       </c>
       <c r="C40" t="n">
-        <v>670.6422221586936</v>
+        <v>580.811764916222</v>
       </c>
       <c r="D40" t="n">
-        <v>520.5255827463578</v>
+        <v>430.6951255038863</v>
       </c>
       <c r="E40" t="n">
-        <v>471.283923737808</v>
+        <v>381.4534664953365</v>
       </c>
       <c r="F40" t="n">
-        <v>324.3939762398977</v>
+        <v>333.2349535712694</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143257</v>
+        <v>264.2035515198317</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218343</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663014</v>
+        <v>985.4928044205427</v>
       </c>
       <c r="X40" t="n">
-        <v>946.0051453388403</v>
+        <v>856.1746880963688</v>
       </c>
       <c r="Y40" t="n">
-        <v>823.8840007691535</v>
+        <v>734.053543526682</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070896</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464978</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7409,22 +7409,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7442,19 +7442,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>740.9069705127578</v>
+        <v>402.2593958170934</v>
       </c>
       <c r="C43" t="n">
-        <v>670.6422221586943</v>
+        <v>331.9946474630297</v>
       </c>
       <c r="D43" t="n">
-        <v>576.5637463460668</v>
+        <v>280.5494426245372</v>
       </c>
       <c r="E43" t="n">
-        <v>428.6506527636736</v>
+        <v>231.3077836159873</v>
       </c>
       <c r="F43" t="n">
-        <v>281.7607052657633</v>
+        <v>183.0892706919202</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218343</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1744.44964124669</v>
       </c>
       <c r="T43" t="n">
-        <v>1612.513483058689</v>
+        <v>1569.880212084555</v>
       </c>
       <c r="U43" t="n">
-        <v>1422.082050758175</v>
+        <v>1280.777345210199</v>
       </c>
       <c r="V43" t="n">
-        <v>1266.068997126132</v>
+        <v>1026.092857004312</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.323261663015</v>
+        <v>835.347121541194</v>
       </c>
       <c r="X43" t="n">
-        <v>946.0051453388409</v>
+        <v>607.3575706431767</v>
       </c>
       <c r="Y43" t="n">
-        <v>823.8840007691541</v>
+        <v>485.2364260734898</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7667,31 +7667,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609174</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710112</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668177</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362622</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811088</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999819</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387306</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332751</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601601</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927782</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064571</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228008</v>
@@ -7731,28 +7731,28 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T45" t="n">
         <v>2242.828302297192</v>
@@ -7764,7 +7764,7 @@
         <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>740.906970512758</v>
+        <v>402.2593958170934</v>
       </c>
       <c r="C46" t="n">
-        <v>628.0089511845591</v>
+        <v>331.9946474630298</v>
       </c>
       <c r="D46" t="n">
-        <v>477.8923117722234</v>
+        <v>280.5494426245373</v>
       </c>
       <c r="E46" t="n">
-        <v>329.9792181898302</v>
+        <v>231.3077836159874</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919203</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404825</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7810,7 +7810,7 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764915</v>
       </c>
       <c r="M46" t="n">
         <v>976.3387758760405</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758176</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V46" t="n">
-        <v>1266.068997126132</v>
+        <v>1176.238539883659</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.323261663015</v>
+        <v>985.4928044205419</v>
       </c>
       <c r="X46" t="n">
-        <v>946.0051453388411</v>
+        <v>804.7004397908632</v>
       </c>
       <c r="Y46" t="n">
-        <v>823.8840007691543</v>
+        <v>583.9078606473331</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>213.8677805682738</v>
+        <v>213.8677805682747</v>
       </c>
       <c r="L8" t="n">
-        <v>228.0473863505252</v>
+        <v>228.0473863505263</v>
       </c>
       <c r="M8" t="n">
-        <v>221.7573265905342</v>
+        <v>221.7573265905354</v>
       </c>
       <c r="N8" t="n">
-        <v>220.6851794710446</v>
+        <v>220.6851794710458</v>
       </c>
       <c r="O8" t="n">
-        <v>221.8567179355889</v>
+        <v>221.85671793559</v>
       </c>
       <c r="P8" t="n">
-        <v>224.1990717385757</v>
+        <v>224.1990717385767</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>124.3650025758399</v>
+        <v>124.3650025758403</v>
       </c>
       <c r="K9" t="n">
-        <v>133.6153305693653</v>
+        <v>133.6153305693659</v>
       </c>
       <c r="L9" t="n">
-        <v>132.8718554951902</v>
+        <v>132.8718554951909</v>
       </c>
       <c r="M9" t="n">
-        <v>135.502796109147</v>
+        <v>135.5027961091479</v>
       </c>
       <c r="N9" t="n">
-        <v>124.5349651374192</v>
+        <v>124.5349651374201</v>
       </c>
       <c r="O9" t="n">
-        <v>136.3694007948888</v>
+        <v>136.3694007948896</v>
       </c>
       <c r="P9" t="n">
-        <v>128.9768164173285</v>
+        <v>128.9768164173292</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.6410168537936</v>
+        <v>136.641016853794</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>131.6226139202307</v>
+        <v>131.6226139202311</v>
       </c>
       <c r="M10" t="n">
-        <v>135.4863965628151</v>
+        <v>135.4863965628156</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3279380250448</v>
+        <v>124.3279380250453</v>
       </c>
       <c r="O10" t="n">
-        <v>135.3552454599786</v>
+        <v>135.3552454599791</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.570299446029821e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>10.77149445565527</v>
+        <v>10.77149445565757</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>10.77149445565544</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>10.77149445565658</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>10.77149445565544</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>10.77149445565675</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.77149445565536</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>10.77149445565661</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>2.728484105318785e-12</v>
       </c>
       <c r="R44" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>-1.918465386552271e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>123.0387407269848</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>71.9096333894675</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>27.68982634589676</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>154.5936377623568</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>52.28225787287964</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>52.28225787287791</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>52.28225787288061</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>52.28225787287867</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24257,13 +24257,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>41.725116156889</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>41.72511615688839</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>37.3582627198468</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24494,22 +24494,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>14.02444567588718</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -24686,16 +24686,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.4752063286537691</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24734,13 +24734,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>214.579871625334</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.700062395888381e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25448,7 +25448,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>2.472688720445149e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>852475.055860665</v>
+        <v>852475.0558606655</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>701496.6761311294</v>
+        <v>701496.6761311295</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>701496.6761311294</v>
+        <v>701496.6761311296</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>748610.8591541131</v>
+        <v>748610.8591541129</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>749838.7488139151</v>
+        <v>749838.7488139153</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>702724.5657909315</v>
+        <v>702724.5657909316</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>702724.5657909315</v>
+        <v>702724.5657909317</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>752827.9361353946</v>
+        <v>752827.9361353947</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>752356.360108126</v>
+        <v>752356.3601081261</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>752356.3601081261</v>
+        <v>752356.3601081258</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>752356.3601081261</v>
+        <v>752356.3601081262</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>696384.8879094826</v>
+        <v>696384.8879094827</v>
       </c>
       <c r="C2" t="n">
-        <v>696384.8879094827</v>
+        <v>696384.8879094825</v>
       </c>
       <c r="D2" t="n">
         <v>696388.1974446848</v>
       </c>
       <c r="E2" t="n">
-        <v>649851.3584063661</v>
+        <v>649851.3584063668</v>
       </c>
       <c r="F2" t="n">
-        <v>649851.3584063663</v>
+        <v>649851.3584063665</v>
       </c>
       <c r="G2" t="n">
+        <v>694348.0868169619</v>
+      </c>
+      <c r="H2" t="n">
         <v>694348.0868169618</v>
       </c>
-      <c r="H2" t="n">
-        <v>694348.086816962</v>
-      </c>
       <c r="I2" t="n">
-        <v>695062.3830254658</v>
+        <v>695062.3830254653</v>
       </c>
       <c r="J2" t="n">
-        <v>650565.6546148704</v>
+        <v>650565.65461487</v>
       </c>
       <c r="K2" t="n">
-        <v>650565.6546148702</v>
+        <v>650565.65461487</v>
       </c>
       <c r="L2" t="n">
         <v>697885.5043846413</v>
       </c>
       <c r="M2" t="n">
-        <v>697885.5043846418</v>
+        <v>697885.504384642</v>
       </c>
       <c r="N2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="O2" t="n">
-        <v>697885.5043846414</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="P2" t="n">
         <v>697885.5043846406</v>
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10420.33926655484</v>
+        <v>10420.33926655341</v>
       </c>
       <c r="E3" t="n">
-        <v>1151572.83087572</v>
+        <v>1151572.830875722</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487377</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>723.3987018808335</v>
+        <v>723.398701880753</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>77544.51094157035</v>
+        <v>77544.51094157014</v>
       </c>
       <c r="M3" t="n">
-        <v>207113.9109540875</v>
+        <v>207113.9109540877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>459028.1883762663</v>
+        <v>459028.1883762669</v>
       </c>
       <c r="E4" t="n">
-        <v>61265.27723866013</v>
+        <v>61265.27723866003</v>
       </c>
       <c r="F4" t="n">
-        <v>61265.27723866014</v>
+        <v>61265.27723866004</v>
       </c>
       <c r="G4" t="n">
-        <v>91028.44393036221</v>
+        <v>91028.443930362</v>
       </c>
       <c r="H4" t="n">
-        <v>91028.44393036212</v>
+        <v>91028.443930362</v>
       </c>
       <c r="I4" t="n">
-        <v>91501.30607406871</v>
+        <v>91501.30607406869</v>
       </c>
       <c r="J4" t="n">
-        <v>61738.13938236667</v>
+        <v>61738.1393823667</v>
       </c>
       <c r="K4" t="n">
-        <v>61738.13938236667</v>
+        <v>61738.13938236673</v>
       </c>
       <c r="L4" t="n">
         <v>93397.00574718686</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="N4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="O4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820625</v>
       </c>
       <c r="P4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820635</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33892.84951251485</v>
+        <v>33892.84951251482</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178172</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178172</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="G5" t="n">
-        <v>82204.64608217016</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="H5" t="n">
         <v>82204.64608217018</v>
       </c>
       <c r="I5" t="n">
-        <v>82370.0434786689</v>
+        <v>82370.04347866891</v>
       </c>
       <c r="J5" t="n">
-        <v>78420.89071828043</v>
+        <v>78420.89071828045</v>
       </c>
       <c r="K5" t="n">
-        <v>78420.89071828043</v>
+        <v>78420.89071828045</v>
       </c>
       <c r="L5" t="n">
-        <v>82620.59982082556</v>
+        <v>82620.59982082559</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
@@ -26506,10 +26506,10 @@
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624988</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199606.5568073728</v>
+        <v>199602.1432295048</v>
       </c>
       <c r="C6" t="n">
-        <v>199606.5568073729</v>
+        <v>199602.1432295046</v>
       </c>
       <c r="D6" t="n">
-        <v>193046.8202893489</v>
+        <v>193042.4164454087</v>
       </c>
       <c r="E6" t="n">
-        <v>-641242.2430297957</v>
+        <v>-641383.5199297331</v>
       </c>
       <c r="F6" t="n">
-        <v>510330.5878459244</v>
+        <v>510189.3109459887</v>
       </c>
       <c r="G6" t="n">
-        <v>483534.8875095553</v>
+        <v>483524.4833402392</v>
       </c>
       <c r="H6" t="n">
-        <v>521114.9968044296</v>
+        <v>521104.5926351132</v>
       </c>
       <c r="I6" t="n">
-        <v>520467.6347708474</v>
+        <v>520459.3314727318</v>
       </c>
       <c r="J6" t="n">
-        <v>510406.6245142233</v>
+        <v>510267.4484854881</v>
       </c>
       <c r="K6" t="n">
-        <v>510406.6245142231</v>
+        <v>510267.4484854881</v>
       </c>
       <c r="L6" t="n">
-        <v>444323.3878750585</v>
+        <v>444323.3878750587</v>
       </c>
       <c r="M6" t="n">
-        <v>314849.2092760981</v>
+        <v>314849.2092760982</v>
       </c>
       <c r="N6" t="n">
-        <v>521963.1202301848</v>
+        <v>521963.1202301847</v>
       </c>
       <c r="O6" t="n">
-        <v>521963.1202301853</v>
+        <v>521963.1202301849</v>
       </c>
       <c r="P6" t="n">
-        <v>521963.1202301845</v>
+        <v>521963.1202301844</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G2" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="H2" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="I2" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095657</v>
+        <v>12.1674088309549</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>834.1218073183894</v>
+        <v>834.12180731839</v>
       </c>
       <c r="J4" t="n">
-        <v>834.1218073183894</v>
+        <v>834.1218073183898</v>
       </c>
       <c r="K4" t="n">
-        <v>834.1218073183894</v>
+        <v>834.1218073183898</v>
       </c>
       <c r="L4" t="n">
-        <v>834.1218073183894</v>
+        <v>834.1218073183898</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
@@ -26829,7 +26829,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022934</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696293</v>
+        <v>96.93063867696269</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7540815511419794</v>
+        <v>0.7540815511420789</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095657</v>
+        <v>12.1674088309549</v>
       </c>
       <c r="E3" t="n">
-        <v>1077.609291762341</v>
+        <v>1077.609291762344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.720351916097229</v>
+        <v>2.72035191609757</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>828.6811034861956</v>
+        <v>828.681103486196</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.9738594999278</v>
+        <v>338.9738594999279</v>
       </c>
       <c r="I8" t="n">
-        <v>208.5901246298815</v>
+        <v>208.5901246298817</v>
       </c>
       <c r="J8" t="n">
-        <v>7.797757232938547</v>
+        <v>7.797757232939116</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.708515212961042</v>
+        <v>4.708515212961766</v>
       </c>
       <c r="R8" t="n">
-        <v>146.7965109261644</v>
+        <v>146.7965109261649</v>
       </c>
       <c r="S8" t="n">
-        <v>207.905437108917</v>
+        <v>207.9054371089172</v>
       </c>
       <c r="T8" t="n">
         <v>222.8817276258097</v>
@@ -27950,7 +27950,7 @@
         <v>111.9826835360647</v>
       </c>
       <c r="I9" t="n">
-        <v>88.49555587666971</v>
+        <v>88.49555587666983</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>98.53291113933162</v>
+        <v>98.53291113933183</v>
       </c>
       <c r="S9" t="n">
-        <v>171.1970486849784</v>
+        <v>171.1970486849785</v>
       </c>
       <c r="T9" t="n">
         <v>200.0592395559947</v>
@@ -28029,13 +28029,13 @@
         <v>162.0320950347072</v>
       </c>
       <c r="I10" t="n">
-        <v>154.7906423303271</v>
+        <v>154.7906423303272</v>
       </c>
       <c r="J10" t="n">
-        <v>91.80793522358508</v>
+        <v>91.80793522358529</v>
       </c>
       <c r="K10" t="n">
-        <v>19.72031994293818</v>
+        <v>19.72031994293853</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,13 +28050,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06774881564673985</v>
+        <v>0.06774881564710356</v>
       </c>
       <c r="Q10" t="n">
-        <v>84.32476451821995</v>
+        <v>84.32476451822019</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3068339332693</v>
+        <v>176.3068339332694</v>
       </c>
       <c r="S10" t="n">
         <v>223.6342222545306</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="C17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="D17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="E17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="F17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="G17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="H17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="T17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="U17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="V17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="W17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="X17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.48995205464341</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="C19" t="n">
-        <v>93.95027323718516</v>
+        <v>91.48995205464396</v>
       </c>
       <c r="D19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="E19" t="n">
-        <v>93.95027323718516</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="G19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="H19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="I19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28776,19 +28776,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="V19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="W19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>93.95027323718497</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="C20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="D20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="E20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="F20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="G20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="H20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="T20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="U20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="V20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="W20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="X20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="C22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="D22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="E22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="F22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="G22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="H22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="I22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,16 +29004,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>93.95027323718516</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="U22" t="n">
-        <v>91.48995205464323</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -29022,10 +29022,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>86.47183148750707</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="C23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="D23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="E23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="F23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="G23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="H23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="T23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="U23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="V23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="W23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="X23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.95027323718516</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="D25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="E25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="F25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="G25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="H25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="I25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>93.95027323718516</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>93.95027323718516</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>91.48995205464396</v>
       </c>
       <c r="X25" t="n">
-        <v>86.47183148750429</v>
+        <v>93.95027323718497</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718497</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29700,7 +29700,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
         <v>46.97513661859256</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="C32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="D32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="E32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="F32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="G32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="H32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="T32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="U32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="V32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="W32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="X32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
     </row>
     <row r="33">
@@ -29904,25 +29904,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="C34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="D34" t="n">
-        <v>62.26451592398912</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>54.26602991707492</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -29952,28 +29952,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.93063867696291</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="U34" t="n">
-        <v>96.93063867696291</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>96.93063867696291</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="X34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696281</v>
       </c>
     </row>
     <row r="35">
@@ -30147,22 +30147,22 @@
         <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
-        <v>54.14548214544497</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,13 +30189,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>97.68472022810489</v>
@@ -30210,7 +30210,7 @@
         <v>97.68472022810489</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>46.72521440565379</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G40" t="n">
-        <v>55.47778196371189</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>45.3929145873871</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="D43" t="n">
-        <v>55.47778196371112</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>46.72521440565504</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>55.47778196371095</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810479</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810494</v>
+        <v>46.72521440565527</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04891420635560426</v>
+        <v>0.04891420635559755</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5009426158393322</v>
+        <v>0.5009426158392635</v>
       </c>
       <c r="I8" t="n">
-        <v>1.885764940524435</v>
+        <v>1.885764940524176</v>
       </c>
       <c r="J8" t="n">
-        <v>4.15153212167397</v>
+        <v>4.151532121673402</v>
       </c>
       <c r="K8" t="n">
-        <v>6.222070476706699</v>
+        <v>6.222070476705847</v>
       </c>
       <c r="L8" t="n">
-        <v>7.719028619462025</v>
+        <v>7.719028619460967</v>
       </c>
       <c r="M8" t="n">
-        <v>8.588906636738502</v>
+        <v>8.588906636737324</v>
       </c>
       <c r="N8" t="n">
-        <v>8.727884125546364</v>
+        <v>8.727884125545167</v>
       </c>
       <c r="O8" t="n">
-        <v>8.241493486097824</v>
+        <v>8.241493486096694</v>
       </c>
       <c r="P8" t="n">
-        <v>7.033924016693842</v>
+        <v>7.033924016692877</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.282184001583762</v>
+        <v>5.282184001583039</v>
       </c>
       <c r="R8" t="n">
-        <v>3.072607014985229</v>
+        <v>3.072607014984807</v>
       </c>
       <c r="S8" t="n">
-        <v>1.114632477328333</v>
+        <v>1.11463247732818</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2141219383216577</v>
+        <v>0.2141219383216284</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003913136508448339</v>
+        <v>0.003913136508447803</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.026171407674133</v>
+        <v>0.02617140767412941</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2527607004317582</v>
+        <v>0.2527607004317236</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9010769747453686</v>
+        <v>0.9010769747452451</v>
       </c>
       <c r="J9" t="n">
-        <v>2.47262409082675</v>
+        <v>2.472624090826411</v>
       </c>
       <c r="K9" t="n">
-        <v>4.22610840499366</v>
+        <v>4.226108404993081</v>
       </c>
       <c r="L9" t="n">
-        <v>5.682524284684009</v>
+        <v>5.68252428468323</v>
       </c>
       <c r="M9" t="n">
-        <v>6.631237812871328</v>
+        <v>6.631237812870419</v>
       </c>
       <c r="N9" t="n">
-        <v>6.80674694591409</v>
+        <v>6.806746945913157</v>
       </c>
       <c r="O9" t="n">
-        <v>6.226843649555669</v>
+        <v>6.226843649554816</v>
       </c>
       <c r="P9" t="n">
-        <v>4.997590997001765</v>
+        <v>4.99759099700108</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.340757232227924</v>
+        <v>3.340757232227467</v>
       </c>
       <c r="R9" t="n">
-        <v>1.624923013311521</v>
+        <v>1.624923013311298</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4861224188594437</v>
+        <v>0.4861224188593771</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1054891388268781</v>
+        <v>0.1054891388268637</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001721803136456119</v>
+        <v>0.001721803136455883</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02194122903942987</v>
+        <v>0.02194122903942686</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1950774727323857</v>
+        <v>0.195077472732359</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6598325969312185</v>
+        <v>0.6598325969311282</v>
       </c>
       <c r="J10" t="n">
-        <v>1.551244893087692</v>
+        <v>1.551244893087479</v>
       </c>
       <c r="K10" t="n">
-        <v>2.54917188294467</v>
+        <v>2.549171882944321</v>
       </c>
       <c r="L10" t="n">
-        <v>3.262062361007602</v>
+        <v>3.262062361007155</v>
       </c>
       <c r="M10" t="n">
-        <v>3.439387384789903</v>
+        <v>3.439387384789431</v>
       </c>
       <c r="N10" t="n">
-        <v>3.357606440188394</v>
+        <v>3.357606440187933</v>
       </c>
       <c r="O10" t="n">
-        <v>3.101292991864144</v>
+        <v>3.101292991863719</v>
       </c>
       <c r="P10" t="n">
-        <v>2.653691919459772</v>
+        <v>2.653691919459408</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.837278733474442</v>
+        <v>1.83727873347419</v>
       </c>
       <c r="R10" t="n">
-        <v>0.986557443900183</v>
+        <v>0.9865574439000477</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3823757824417005</v>
+        <v>0.382375782441648</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09374888771392761</v>
+        <v>0.09374888771391476</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001196794311241631</v>
+        <v>0.001196794311241467</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,37 +32540,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32579,7 +32579,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32628,16 +32628,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
         <v>300.7247737883114</v>
@@ -32646,19 +32646,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780294</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306614</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>70.38469299788005</v>
+        <v>70.38469299788235</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597708</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36601,10 +36601,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>549.6926102858822</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>563.0733298685681</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36838,7 +36838,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>549.6926102858822</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36847,7 +36847,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>409.5334806750286</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36993,13 +36993,13 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120759</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>201.5584954243679</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37087,7 +37087,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>261.5657992593761</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37549,10 +37549,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38035,10 +38035,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037222</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
